--- a/ANALYSIS.xlsx
+++ b/ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COURSE\LAB_IN_PSYCH\Signal Detection Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8117E-93EA-4B89-B8F4-C5F36259C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF808BAA-59FD-4E2E-8B41-4C367FB895D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C637C6D-07E4-4091-830C-F7D75E5AB0A5}"/>
   </bookViews>
@@ -408,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -523,6 +523,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -568,8 +583,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -925,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC22569-4188-4B45-82BE-D5FEF858B239}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2387,102 +2403,154 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="105" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E105" t="s">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <f>B113/(B113+C113)</f>
         <v>0.69117647058823528</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E106" t="s">
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <f>B114/(B114+C114)</f>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E109" t="s">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <f>NORMSINV(F105) - NORMSINV(F106)</f>
         <v>0.18054847808650154</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E110" t="s">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
         <f>-((NORMSINV(F105) +NORMSINV(F106)/2))</f>
         <v>-0.65850752403306434</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B112" t="s">
+    <row r="111" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>47</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>20</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>12</v>
       </c>
-    </row>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>